--- a/Code/Results/Cases/Case_5_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_117/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.55042966222435</v>
+        <v>8.658781320990395</v>
       </c>
       <c r="C2">
-        <v>7.067328985738587</v>
+        <v>5.776349252250848</v>
       </c>
       <c r="D2">
-        <v>4.83083355445522</v>
+        <v>5.210700280086404</v>
       </c>
       <c r="E2">
-        <v>14.63354963626559</v>
+        <v>12.80913531481472</v>
       </c>
       <c r="F2">
-        <v>20.17302888769548</v>
+        <v>25.8505598011867</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.2762963231083</v>
+        <v>7.881343650347751</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.48788501870344</v>
+        <v>13.37592750253274</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.34167632744701</v>
+        <v>23.12837045790562</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.76402741774387</v>
+        <v>8.375255007433136</v>
       </c>
       <c r="C3">
-        <v>6.839687697917989</v>
+        <v>5.677267269457328</v>
       </c>
       <c r="D3">
-        <v>4.719364476001837</v>
+        <v>5.16834100440316</v>
       </c>
       <c r="E3">
-        <v>13.77257762736252</v>
+        <v>12.59790147270134</v>
       </c>
       <c r="F3">
-        <v>19.7795034537742</v>
+        <v>25.85822056369273</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.69714050488463</v>
+        <v>7.690156342032411</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.56513704743532</v>
+        <v>13.20665415481002</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.26211713429432</v>
+        <v>23.18463731653462</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.25428244669543</v>
+        <v>8.197753954047924</v>
       </c>
       <c r="C4">
-        <v>6.695795280471524</v>
+        <v>5.614898613606682</v>
       </c>
       <c r="D4">
-        <v>4.649058330816368</v>
+        <v>5.141725974095158</v>
       </c>
       <c r="E4">
-        <v>13.22959457534272</v>
+        <v>12.47089036794688</v>
       </c>
       <c r="F4">
-        <v>19.55325529768119</v>
+        <v>25.86990825973226</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.32488808747239</v>
+        <v>7.571603531575046</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.96903030217225</v>
+        <v>13.10492469694334</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.22780252182921</v>
+        <v>23.2243900530789</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.03979452856844</v>
+        <v>8.124679888736717</v>
       </c>
       <c r="C5">
-        <v>6.63616986921889</v>
+        <v>5.589116164459362</v>
       </c>
       <c r="D5">
-        <v>4.619961468835333</v>
+        <v>5.130731789761617</v>
       </c>
       <c r="E5">
-        <v>13.00493082421914</v>
+        <v>12.41988153139816</v>
       </c>
       <c r="F5">
-        <v>19.46493093256701</v>
+        <v>25.87642538715141</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.1690770014211</v>
+        <v>7.52307155495469</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.71866471131917</v>
+        <v>13.06407271075935</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.21734366993984</v>
+        <v>23.2418948995931</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.00377070976159</v>
+        <v>8.112504868418501</v>
       </c>
       <c r="C6">
-        <v>6.626210945390346</v>
+        <v>5.584813414568698</v>
       </c>
       <c r="D6">
-        <v>4.615103663281694</v>
+        <v>5.128897375259167</v>
       </c>
       <c r="E6">
-        <v>12.96742786691077</v>
+        <v>12.41145892354472</v>
       </c>
       <c r="F6">
-        <v>19.45049862367886</v>
+        <v>25.8776134301305</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.14295857776922</v>
+        <v>7.515001680833103</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.67664156909574</v>
+        <v>13.05732713711795</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.2158159727183</v>
+        <v>23.24488029575614</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.25141716302635</v>
+        <v>8.196771289259223</v>
       </c>
       <c r="C7">
-        <v>6.694995084710007</v>
+        <v>5.614552362320814</v>
       </c>
       <c r="D7">
-        <v>4.648667698052177</v>
+        <v>5.14157829786653</v>
       </c>
       <c r="E7">
-        <v>13.22657810248595</v>
+        <v>12.47019931532193</v>
       </c>
       <c r="F7">
-        <v>19.55204844139055</v>
+        <v>25.86998905223733</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.32280331977303</v>
+        <v>7.570949809122407</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.96568395520399</v>
+        <v>13.10437124483402</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.22764737426538</v>
+        <v>23.22462084931468</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.28485563781971</v>
+        <v>8.56179788794508</v>
       </c>
       <c r="C8">
-        <v>6.9897202891774</v>
+        <v>5.742514597092134</v>
       </c>
       <c r="D8">
-        <v>4.792798595469995</v>
+        <v>5.196223074784131</v>
       </c>
       <c r="E8">
-        <v>14.33977497510117</v>
+        <v>12.73578857916091</v>
       </c>
       <c r="F8">
-        <v>20.0341574366822</v>
+        <v>25.85175090478663</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.08009602391862</v>
+        <v>7.81570568391245</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.17583541032721</v>
+        <v>13.31713419112207</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.31115053662362</v>
+        <v>23.14668902793693</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.0986218032675</v>
+        <v>9.245829622695178</v>
       </c>
       <c r="C9">
-        <v>7.533177741277407</v>
+        <v>5.980520859281305</v>
       </c>
       <c r="D9">
-        <v>5.059763106116296</v>
+        <v>5.298395032029184</v>
       </c>
       <c r="E9">
-        <v>16.41961930052098</v>
+        <v>13.27465665702039</v>
       </c>
       <c r="F9">
-        <v>21.10076344275564</v>
+        <v>25.8714380582451</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.43078822790814</v>
+        <v>8.36248194742536</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.31616636534181</v>
+        <v>13.74965334871002</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.59581515029736</v>
+        <v>23.03530757062607</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.30285736250815</v>
+        <v>9.723405655031021</v>
       </c>
       <c r="C10">
-        <v>7.909409179114599</v>
+        <v>6.146528865376229</v>
       </c>
       <c r="D10">
-        <v>5.245274364846044</v>
+        <v>5.370192279400342</v>
       </c>
       <c r="E10">
-        <v>18.04170013824018</v>
+        <v>13.67717495384462</v>
       </c>
       <c r="F10">
-        <v>21.95669293115851</v>
+        <v>25.91969059850083</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.33926422709699</v>
+        <v>8.810338483946493</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.74976965719565</v>
+        <v>14.07375893708164</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.88594359337705</v>
+        <v>22.97892586175816</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.82326610973684</v>
+        <v>9.934245163249116</v>
       </c>
       <c r="C11">
-        <v>8.075245960623679</v>
+        <v>6.219938267475892</v>
       </c>
       <c r="D11">
-        <v>5.327166780556561</v>
+        <v>5.402097980420135</v>
       </c>
       <c r="E11">
-        <v>18.75068953050572</v>
+        <v>13.86081283664143</v>
       </c>
       <c r="F11">
-        <v>22.36136287213738</v>
+        <v>25.94895079484193</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.73417573414895</v>
+        <v>9.005148249071199</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.37264178110448</v>
+        <v>14.22194387869306</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.03696305901573</v>
+        <v>22.95883672461174</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.01643291914694</v>
+        <v>10.013091296946</v>
       </c>
       <c r="C12">
-        <v>8.137260267682093</v>
+        <v>6.24741862179135</v>
       </c>
       <c r="D12">
-        <v>5.357804020102079</v>
+        <v>5.414067340635546</v>
       </c>
       <c r="E12">
-        <v>19.01513299032809</v>
+        <v>13.93035423698366</v>
       </c>
       <c r="F12">
-        <v>22.51676649993564</v>
+        <v>25.96107758436969</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.8810772968579</v>
+        <v>9.077603665385309</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.60437710238102</v>
+        <v>14.27811290257574</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.09699910797038</v>
+        <v>22.95203116339198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.97500378322757</v>
+        <v>9.996155650796096</v>
       </c>
       <c r="C13">
-        <v>8.123939541534542</v>
+        <v>6.241514616605433</v>
       </c>
       <c r="D13">
-        <v>5.351222574238096</v>
+        <v>5.411494597515208</v>
       </c>
       <c r="E13">
-        <v>18.95835776102222</v>
+        <v>13.91537833504096</v>
       </c>
       <c r="F13">
-        <v>22.4832018354854</v>
+        <v>25.95841940169086</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.84955690998552</v>
+        <v>9.062058029598006</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.5546512290241</v>
+        <v>14.2660143010042</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.08394088031172</v>
+        <v>22.95346117032844</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.83923598769517</v>
+        <v>9.940752191662751</v>
       </c>
       <c r="C14">
-        <v>8.080363737216329</v>
+        <v>6.222205552481937</v>
       </c>
       <c r="D14">
-        <v>5.329694890441692</v>
+        <v>5.403084987063426</v>
       </c>
       <c r="E14">
-        <v>18.77252558657142</v>
+        <v>13.86653443284874</v>
       </c>
       <c r="F14">
-        <v>22.37410484598023</v>
+        <v>25.94992752843156</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.74631436572067</v>
+        <v>9.011135716467093</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.39178913609945</v>
+        <v>14.226564143105</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.04184456018393</v>
+        <v>22.95826074623421</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.75556758248163</v>
+        <v>9.906684496817618</v>
       </c>
       <c r="C15">
-        <v>8.053569611179459</v>
+        <v>6.210336325532372</v>
       </c>
       <c r="D15">
-        <v>5.316459500171304</v>
+        <v>5.397919071127089</v>
       </c>
       <c r="E15">
-        <v>18.65817630918127</v>
+        <v>13.83661418771482</v>
       </c>
       <c r="F15">
-        <v>22.30756059113924</v>
+        <v>25.94486215114597</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.68273121556348</v>
+        <v>8.979772236542779</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.29149564622462</v>
+        <v>14.20240534055922</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.01643348013225</v>
+        <v>22.96130510202127</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.26829928644143</v>
+        <v>9.709491410553435</v>
       </c>
       <c r="C16">
-        <v>7.898462582534502</v>
+        <v>6.141687657596496</v>
       </c>
       <c r="D16">
-        <v>5.239870970366471</v>
+        <v>5.36809162256842</v>
       </c>
       <c r="E16">
-        <v>17.99479441112069</v>
+        <v>13.66517802889427</v>
       </c>
       <c r="F16">
-        <v>21.93055149917452</v>
+        <v>25.91792510725512</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.31308595263085</v>
+        <v>8.797424843315092</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.70848072902342</v>
+        <v>14.06408520191277</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.87646677324914</v>
+        <v>22.9803508079257</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.96238392368398</v>
+        <v>9.586823531943194</v>
       </c>
       <c r="C17">
-        <v>7.801932546402762</v>
+        <v>6.099022932730411</v>
       </c>
       <c r="D17">
-        <v>5.192235884770681</v>
+        <v>5.349597116111712</v>
       </c>
       <c r="E17">
-        <v>17.58050976881168</v>
+        <v>13.56008951441965</v>
       </c>
       <c r="F17">
-        <v>21.70316074023321</v>
+        <v>25.90326948173583</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.08161347830712</v>
+        <v>8.68325127934518</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.34337282994395</v>
+        <v>13.97938382242237</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.79555808059598</v>
+        <v>22.9934603515502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.78384736732828</v>
+        <v>9.515668429300217</v>
       </c>
       <c r="C18">
-        <v>7.74591186472812</v>
+        <v>6.074285690959334</v>
       </c>
       <c r="D18">
-        <v>5.164603123866261</v>
+        <v>5.338888715160336</v>
       </c>
       <c r="E18">
-        <v>17.33949557543148</v>
+        <v>13.49969961181533</v>
       </c>
       <c r="F18">
-        <v>21.57381405093933</v>
+        <v>25.89552834469653</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.94674818047576</v>
+        <v>8.616743432059074</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.13061112144233</v>
+        <v>13.93073931780893</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.75080724875406</v>
+        <v>23.00152375059898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.72295334069165</v>
+        <v>9.4914758554531</v>
       </c>
       <c r="C19">
-        <v>7.726859199562414</v>
+        <v>6.065876616346193</v>
       </c>
       <c r="D19">
-        <v>5.155207368590187</v>
+        <v>5.335250990556491</v>
       </c>
       <c r="E19">
-        <v>17.25742021606618</v>
+        <v>13.47926425408729</v>
       </c>
       <c r="F19">
-        <v>21.5302684181548</v>
+        <v>25.89302567945679</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.90078848127422</v>
+        <v>8.594082095037065</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.05809718370562</v>
+        <v>13.91428337447593</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.73595863982494</v>
+        <v>23.00434365105811</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.99521610377791</v>
+        <v>9.599944361180023</v>
       </c>
       <c r="C20">
-        <v>7.812260158713843</v>
+        <v>6.103585230038664</v>
       </c>
       <c r="D20">
-        <v>5.197331082098383</v>
+        <v>5.351573250129578</v>
       </c>
       <c r="E20">
-        <v>17.6248926480812</v>
+        <v>13.57127130132179</v>
       </c>
       <c r="F20">
-        <v>21.72721786639996</v>
+        <v>25.90475838130905</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.10643305606546</v>
+        <v>8.695492248921731</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.38252443842504</v>
+        <v>13.98839320958076</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.8039853200224</v>
+        <v>22.99201065747781</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.87921979967074</v>
+        <v>9.957053047487586</v>
       </c>
       <c r="C21">
-        <v>8.093184436982076</v>
+        <v>6.227885843333144</v>
       </c>
       <c r="D21">
-        <v>5.336028341227061</v>
+        <v>5.405558182107285</v>
       </c>
       <c r="E21">
-        <v>18.827217487896</v>
+        <v>13.88088160554092</v>
       </c>
       <c r="F21">
-        <v>22.40609081531099</v>
+        <v>25.95239343580305</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.77671090872268</v>
+        <v>9.026128748589917</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.43973718003769</v>
+        <v>14.23815054532703</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.05413111000469</v>
+        <v>22.95682921780335</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.43425327193253</v>
+        <v>10.18462139694663</v>
       </c>
       <c r="C22">
-        <v>8.272206049300461</v>
+        <v>6.307262494278858</v>
       </c>
       <c r="D22">
-        <v>5.424491529350874</v>
+        <v>5.440182122186831</v>
       </c>
       <c r="E22">
-        <v>19.58955092470201</v>
+        <v>14.08320718466635</v>
       </c>
       <c r="F22">
-        <v>22.86237381134887</v>
+        <v>25.98962303251533</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.19937644615633</v>
+        <v>9.234543444498209</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.10664001980933</v>
+        <v>14.40167592904987</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.23426600968848</v>
+        <v>22.93851023583612</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.14008526419942</v>
+        <v>10.06371841312131</v>
       </c>
       <c r="C23">
-        <v>8.177083304559398</v>
+        <v>6.265072680778516</v>
       </c>
       <c r="D23">
-        <v>5.377481234101642</v>
+        <v>5.421764219497752</v>
       </c>
       <c r="E23">
-        <v>19.18478175452983</v>
+        <v>13.9752482300922</v>
       </c>
       <c r="F23">
-        <v>22.61770467863123</v>
+        <v>25.96919681400886</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.97519966017786</v>
+        <v>9.12402024052721</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.75287366618751</v>
+        <v>14.31438959959531</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.13656571069407</v>
+        <v>22.94785904648485</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.98038096884741</v>
+        <v>9.59401439633954</v>
       </c>
       <c r="C24">
-        <v>7.807592676583653</v>
+        <v>6.101523264426769</v>
       </c>
       <c r="D24">
-        <v>5.195028310733944</v>
+        <v>5.350680075295744</v>
       </c>
       <c r="E24">
-        <v>17.60483599219146</v>
+        <v>13.56621592603092</v>
       </c>
       <c r="F24">
-        <v>21.71633732815163</v>
+        <v>25.90408311703188</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.09521769600677</v>
+        <v>8.689960807615828</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.3648328987863</v>
+        <v>13.98431990134797</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.80016987699501</v>
+        <v>22.99266442414358</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.63061534680836</v>
+        <v>9.064799265140158</v>
       </c>
       <c r="C25">
-        <v>7.390080383484439</v>
+        <v>5.917621717070708</v>
       </c>
       <c r="D25">
-        <v>4.989337204670792</v>
+        <v>5.271312511361257</v>
       </c>
       <c r="E25">
-        <v>15.85791178509598</v>
+        <v>13.12740206836699</v>
       </c>
       <c r="F25">
-        <v>20.79938444951098</v>
+        <v>25.86017267072875</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.08002718411507</v>
+        <v>8.189881429539168</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.76179773172908</v>
+        <v>13.63131638324489</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.50508965758639</v>
+        <v>23.06098219567858</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_117/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_117/res_line/loading_percent.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.658781320990395</v>
+        <v>12.55042966222437</v>
       </c>
       <c r="C2">
-        <v>5.776349252250848</v>
+        <v>7.067328985738383</v>
       </c>
       <c r="D2">
-        <v>5.210700280086404</v>
+        <v>4.830833554455214</v>
       </c>
       <c r="E2">
-        <v>12.80913531481472</v>
+        <v>14.63354963626559</v>
       </c>
       <c r="F2">
-        <v>25.8505598011867</v>
+        <v>20.17302888769546</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.881343650347751</v>
+        <v>11.27629632310832</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.37592750253274</v>
+        <v>14.48788501870342</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.12837045790562</v>
+        <v>16.34167632744698</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,19 +462,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.375255007433136</v>
+        <v>11.76402741774394</v>
       </c>
       <c r="C3">
-        <v>5.677267269457328</v>
+        <v>6.839687697917747</v>
       </c>
       <c r="D3">
-        <v>5.16834100440316</v>
+        <v>4.71936447600195</v>
       </c>
       <c r="E3">
-        <v>12.59790147270134</v>
+        <v>13.77257762736252</v>
       </c>
       <c r="F3">
-        <v>25.85822056369273</v>
+        <v>19.7795034537742</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -483,19 +483,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.690156342032411</v>
+        <v>10.6971405048846</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.20665415481002</v>
+        <v>13.56513704743533</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.18463731653462</v>
+        <v>16.26211713429439</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,19 +503,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.197753954047924</v>
+        <v>11.25428244669544</v>
       </c>
       <c r="C4">
-        <v>5.614898613606682</v>
+        <v>6.695795280471526</v>
       </c>
       <c r="D4">
-        <v>5.141725974095158</v>
+        <v>4.649058330816434</v>
       </c>
       <c r="E4">
-        <v>12.47089036794688</v>
+        <v>13.22959457534271</v>
       </c>
       <c r="F4">
-        <v>25.86990825973226</v>
+        <v>19.55325529768112</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -524,19 +524,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.571603531575046</v>
+        <v>10.32488808747239</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.10492469694334</v>
+        <v>12.96903030217225</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.2243900530789</v>
+        <v>16.22780252182919</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,19 +544,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.124679888736717</v>
+        <v>11.03979452856845</v>
       </c>
       <c r="C5">
-        <v>5.589116164459362</v>
+        <v>6.636169869218783</v>
       </c>
       <c r="D5">
-        <v>5.130731789761617</v>
+        <v>4.619961468835452</v>
       </c>
       <c r="E5">
-        <v>12.41988153139816</v>
+        <v>13.0049308242192</v>
       </c>
       <c r="F5">
-        <v>25.87642538715141</v>
+        <v>19.46493093256717</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.52307155495469</v>
+        <v>10.16907700142106</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.06407271075935</v>
+        <v>12.71866471131914</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.2418948995931</v>
+        <v>16.21734366993999</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,19 +585,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.112504868418501</v>
+        <v>11.00377070976156</v>
       </c>
       <c r="C6">
-        <v>5.584813414568698</v>
+        <v>6.626210945390374</v>
       </c>
       <c r="D6">
-        <v>5.128897375259167</v>
+        <v>4.615103663281633</v>
       </c>
       <c r="E6">
-        <v>12.41145892354472</v>
+        <v>12.96742786691082</v>
       </c>
       <c r="F6">
-        <v>25.8776134301305</v>
+        <v>19.45049862367866</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -606,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.515001680833103</v>
+        <v>10.14295857776925</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.05732713711795</v>
+        <v>12.67664156909572</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.24488029575614</v>
+        <v>16.2158159727181</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,19 +626,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.196771289259223</v>
+        <v>11.25141716302635</v>
       </c>
       <c r="C7">
-        <v>5.614552362320814</v>
+        <v>6.694995084709804</v>
       </c>
       <c r="D7">
-        <v>5.14157829786653</v>
+        <v>4.648667698052308</v>
       </c>
       <c r="E7">
-        <v>12.47019931532193</v>
+        <v>13.22657810248596</v>
       </c>
       <c r="F7">
-        <v>25.86998905223733</v>
+        <v>19.55204844139043</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.570949809122407</v>
+        <v>10.32280331977299</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.10437124483402</v>
+        <v>12.96568395520392</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.22462084931468</v>
+        <v>16.22764737426531</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,19 +667,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.56179788794508</v>
+        <v>12.2848556378198</v>
       </c>
       <c r="C8">
-        <v>5.742514597092134</v>
+        <v>6.989720289177616</v>
       </c>
       <c r="D8">
-        <v>5.196223074784131</v>
+        <v>4.792798595469892</v>
       </c>
       <c r="E8">
-        <v>12.73578857916091</v>
+        <v>14.3397749751012</v>
       </c>
       <c r="F8">
-        <v>25.85175090478663</v>
+        <v>20.03415743668208</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -688,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.81570568391245</v>
+        <v>11.08009602391873</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.31713419112207</v>
+        <v>14.17583541032726</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.14668902793693</v>
+        <v>16.31115053662348</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,19 +708,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.245829622695178</v>
+        <v>14.09862180326742</v>
       </c>
       <c r="C9">
-        <v>5.980520859281305</v>
+        <v>7.533177741277602</v>
       </c>
       <c r="D9">
-        <v>5.298395032029184</v>
+        <v>5.059763106116229</v>
       </c>
       <c r="E9">
-        <v>13.27465665702039</v>
+        <v>16.41961930052102</v>
       </c>
       <c r="F9">
-        <v>25.8714380582451</v>
+        <v>21.10076344275567</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.36248194742536</v>
+        <v>12.43078822790812</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.74965334871002</v>
+        <v>16.31616636534185</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.03530757062607</v>
+        <v>16.59581515029739</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,19 +749,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.723405655031021</v>
+        <v>15.30285736250818</v>
       </c>
       <c r="C10">
-        <v>6.146528865376229</v>
+        <v>7.909409179114505</v>
       </c>
       <c r="D10">
-        <v>5.370192279400342</v>
+        <v>5.245274364846077</v>
       </c>
       <c r="E10">
-        <v>13.67717495384462</v>
+        <v>18.04170013824016</v>
       </c>
       <c r="F10">
-        <v>25.91969059850083</v>
+        <v>21.95669293115855</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.810338483946493</v>
+        <v>13.33926422709694</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.07375893708164</v>
+        <v>17.74976965719563</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.97892586175816</v>
+        <v>16.88594359337708</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.934245163249116</v>
+        <v>15.82326610973681</v>
       </c>
       <c r="C11">
-        <v>6.219938267475892</v>
+        <v>8.075245960623491</v>
       </c>
       <c r="D11">
-        <v>5.402097980420135</v>
+        <v>5.327166780556651</v>
       </c>
       <c r="E11">
-        <v>13.86081283664143</v>
+        <v>18.75068953050573</v>
       </c>
       <c r="F11">
-        <v>25.94895079484193</v>
+        <v>22.36136287213732</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -811,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.005148249071199</v>
+        <v>13.73417573414893</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.22194387869306</v>
+        <v>18.37264178110447</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.95883672461174</v>
+        <v>17.03696305901569</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,19 +831,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.013091296946</v>
+        <v>16.01643291914693</v>
       </c>
       <c r="C12">
-        <v>6.24741862179135</v>
+        <v>8.137260267681983</v>
       </c>
       <c r="D12">
-        <v>5.414067340635546</v>
+        <v>5.357804020102201</v>
       </c>
       <c r="E12">
-        <v>13.93035423698366</v>
+        <v>19.01513299032809</v>
       </c>
       <c r="F12">
-        <v>25.96107758436969</v>
+        <v>22.51676649993567</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.077603665385309</v>
+        <v>13.88107729685787</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.27811290257574</v>
+        <v>18.60437710238101</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.95203116339198</v>
+        <v>17.09699910797043</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,19 +872,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.996155650796096</v>
+        <v>15.9750037832275</v>
       </c>
       <c r="C13">
-        <v>6.241514616605433</v>
+        <v>8.123939541534538</v>
       </c>
       <c r="D13">
-        <v>5.411494597515208</v>
+        <v>5.351222574238001</v>
       </c>
       <c r="E13">
-        <v>13.91537833504096</v>
+        <v>18.95835776102228</v>
       </c>
       <c r="F13">
-        <v>25.95841940169086</v>
+        <v>22.48320183548543</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -893,19 +893,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.062058029598006</v>
+        <v>13.84955690998547</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.2660143010042</v>
+        <v>18.55465122902412</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.95346117032844</v>
+        <v>17.08394088031175</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,19 +913,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.940752191662751</v>
+        <v>15.83923598769518</v>
       </c>
       <c r="C14">
-        <v>6.222205552481937</v>
+        <v>8.08036373721626</v>
       </c>
       <c r="D14">
-        <v>5.403084987063426</v>
+        <v>5.329694890441647</v>
       </c>
       <c r="E14">
-        <v>13.86653443284874</v>
+        <v>18.77252558657142</v>
       </c>
       <c r="F14">
-        <v>25.94992752843156</v>
+        <v>22.37410484598013</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.011135716467093</v>
+        <v>13.7463143657207</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.226564143105</v>
+        <v>18.39178913609944</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.95826074623421</v>
+        <v>17.04184456018379</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.906684496817618</v>
+        <v>15.75556758248166</v>
       </c>
       <c r="C15">
-        <v>6.210336325532372</v>
+        <v>8.05356961117956</v>
       </c>
       <c r="D15">
-        <v>5.397919071127089</v>
+        <v>5.316459500171388</v>
       </c>
       <c r="E15">
-        <v>13.83661418771482</v>
+        <v>18.65817630918133</v>
       </c>
       <c r="F15">
-        <v>25.94486215114597</v>
+        <v>22.30756059113919</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.979772236542779</v>
+        <v>13.68273121556355</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.20240534055922</v>
+        <v>18.29149564622466</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.96130510202127</v>
+        <v>17.01643348013219</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,19 +995,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.709491410553435</v>
+        <v>15.26829928644144</v>
       </c>
       <c r="C16">
-        <v>6.141687657596496</v>
+        <v>7.898462582534679</v>
       </c>
       <c r="D16">
-        <v>5.36809162256842</v>
+        <v>5.239870970366532</v>
       </c>
       <c r="E16">
-        <v>13.66517802889427</v>
+        <v>17.99479441112071</v>
       </c>
       <c r="F16">
-        <v>25.91792510725512</v>
+        <v>21.93055149917425</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1016,19 +1016,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.797424843315092</v>
+        <v>13.31308595263093</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.06408520191277</v>
+        <v>17.70848072902347</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.9803508079257</v>
+        <v>16.8764667732489</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,19 +1036,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.586823531943194</v>
+        <v>14.96238392368408</v>
       </c>
       <c r="C17">
-        <v>6.099022932730411</v>
+        <v>7.801932546402798</v>
       </c>
       <c r="D17">
-        <v>5.349597116111712</v>
+        <v>5.192235884770601</v>
       </c>
       <c r="E17">
-        <v>13.56008951441965</v>
+        <v>17.58050976881165</v>
       </c>
       <c r="F17">
-        <v>25.90326948173583</v>
+        <v>21.70316074023307</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.68325127934518</v>
+        <v>13.08161347830719</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.97938382242237</v>
+        <v>17.34337282994395</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.9934603515502</v>
+        <v>16.79555808059583</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,19 +1077,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.515668429300217</v>
+        <v>14.7838473673283</v>
       </c>
       <c r="C18">
-        <v>6.074285690959334</v>
+        <v>7.745911864727906</v>
       </c>
       <c r="D18">
-        <v>5.338888715160336</v>
+        <v>5.164603123866349</v>
       </c>
       <c r="E18">
-        <v>13.49969961181533</v>
+        <v>17.33949557543149</v>
       </c>
       <c r="F18">
-        <v>25.89552834469653</v>
+        <v>21.57381405093944</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.616743432059074</v>
+        <v>12.94674818047565</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.93073931780893</v>
+        <v>17.13061112144227</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.00152375059898</v>
+        <v>16.75080724875422</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,19 +1118,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.4914758554531</v>
+        <v>14.72295334069172</v>
       </c>
       <c r="C19">
-        <v>6.065876616346193</v>
+        <v>7.726859199562522</v>
       </c>
       <c r="D19">
-        <v>5.335250990556491</v>
+        <v>5.155207368590395</v>
       </c>
       <c r="E19">
-        <v>13.47926425408729</v>
+        <v>17.25742021606618</v>
       </c>
       <c r="F19">
-        <v>25.89302567945679</v>
+        <v>21.53026841815461</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.594082095037065</v>
+        <v>12.90078848127429</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.91428337447593</v>
+        <v>17.05809718370562</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.00434365105811</v>
+        <v>16.73595863982479</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.599944361180023</v>
+        <v>14.99521610377794</v>
       </c>
       <c r="C20">
-        <v>6.103585230038664</v>
+        <v>7.812260158713761</v>
       </c>
       <c r="D20">
-        <v>5.351573250129578</v>
+        <v>5.197331082098392</v>
       </c>
       <c r="E20">
-        <v>13.57127130132179</v>
+        <v>17.62489264808119</v>
       </c>
       <c r="F20">
-        <v>25.90475838130905</v>
+        <v>21.7272178664</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.695492248921731</v>
+        <v>13.10643305606547</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.98839320958076</v>
+        <v>17.38252443842504</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.99201065747781</v>
+        <v>16.80398532002247</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,19 +1200,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.957053047487586</v>
+        <v>15.87921979967067</v>
       </c>
       <c r="C21">
-        <v>6.227885843333144</v>
+        <v>8.093184436981984</v>
       </c>
       <c r="D21">
-        <v>5.405558182107285</v>
+        <v>5.336028341227256</v>
       </c>
       <c r="E21">
-        <v>13.88088160554092</v>
+        <v>18.82721748789603</v>
       </c>
       <c r="F21">
-        <v>25.95239343580305</v>
+        <v>22.40609081531093</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.026128748589917</v>
+        <v>13.7767109087226</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.23815054532703</v>
+        <v>18.43973718003768</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.95682921780335</v>
+        <v>17.05413111000469</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,19 +1241,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.18462139694663</v>
+        <v>16.43425327193259</v>
       </c>
       <c r="C22">
-        <v>6.307262494278858</v>
+        <v>8.272206049300394</v>
       </c>
       <c r="D22">
-        <v>5.440182122186831</v>
+        <v>5.42449152935094</v>
       </c>
       <c r="E22">
-        <v>14.08320718466635</v>
+        <v>19.589550924702</v>
       </c>
       <c r="F22">
-        <v>25.98962303251533</v>
+        <v>22.86237381134879</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.234543444498209</v>
+        <v>14.19937644615636</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.40167592904987</v>
+        <v>19.10664001980936</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.93851023583612</v>
+        <v>17.23426600968838</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,19 +1282,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.06371841312131</v>
+        <v>16.14008526419944</v>
       </c>
       <c r="C23">
-        <v>6.265072680778516</v>
+        <v>8.17708330455949</v>
       </c>
       <c r="D23">
-        <v>5.421764219497752</v>
+        <v>5.377481234101675</v>
       </c>
       <c r="E23">
-        <v>13.9752482300922</v>
+        <v>19.18478175452984</v>
       </c>
       <c r="F23">
-        <v>25.96919681400886</v>
+        <v>22.6177046786312</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.12402024052721</v>
+        <v>13.97519966017791</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.31438959959531</v>
+        <v>18.75287366618755</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.94785904648485</v>
+        <v>17.13656571069404</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,19 +1323,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.59401439633954</v>
+        <v>14.98038096884741</v>
       </c>
       <c r="C24">
-        <v>6.101523264426769</v>
+        <v>7.807592676583747</v>
       </c>
       <c r="D24">
-        <v>5.350680075295744</v>
+        <v>5.195028310734017</v>
       </c>
       <c r="E24">
-        <v>13.56621592603092</v>
+        <v>17.6048359921915</v>
       </c>
       <c r="F24">
-        <v>25.90408311703188</v>
+        <v>21.71633732815152</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.689960807615828</v>
+        <v>13.09521769600678</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.98431990134797</v>
+        <v>17.36483289878634</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.99266442414358</v>
+        <v>16.80016987699491</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.064799265140158</v>
+        <v>13.63061534680837</v>
       </c>
       <c r="C25">
-        <v>5.917621717070708</v>
+        <v>7.39008038348444</v>
       </c>
       <c r="D25">
-        <v>5.271312511361257</v>
+        <v>4.98933720467091</v>
       </c>
       <c r="E25">
-        <v>13.12740206836699</v>
+        <v>15.857911785096</v>
       </c>
       <c r="F25">
-        <v>25.86017267072875</v>
+        <v>20.79938444951094</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.189881429539168</v>
+        <v>12.08002718411506</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.63131638324489</v>
+        <v>15.76179773172909</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.06098219567858</v>
+        <v>16.50508965758637</v>
       </c>
     </row>
   </sheetData>
